--- a/Code/item51to60/src/53note.xlsx
+++ b/Code/item51to60/src/53note.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\LeetCodeProject\item51to60\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitProject\LeetCodeNote\Code\item51to60\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935D0A2-FEB6-463B-A351-F3CF4C638F6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5AAD98-1BE4-4210-A39C-6D33584CDB43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B5B8D46C-8766-4311-8999-9C3721CBDA17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,37 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
-    <t>0-0</t>
+    <t>入口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-1</t>
+    <t>X</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
+    <t>出口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3-3</t>
+    <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
+    <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3-5</t>
+    <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>子序列下标</t>
+    <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>最大和</t>
+    <t>0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -107,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -115,6 +134,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -124,18 +223,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -153,6 +288,541 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>239075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222746</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8261E1F2-E4AE-4D52-99F6-8DD8FA9BEF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2214832" y="1050471"/>
+          <a:ext cx="1355271" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>505774</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>58741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511217</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>113169</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DD3F131-26C5-45FA-8C37-0589E0DEA011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1795731" y="1201741"/>
+          <a:ext cx="5443" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14173</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>264853</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>86058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020C66A8-3C6A-4ACC-8DD6-80F75CAD4260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2675730" y="1409905"/>
+          <a:ext cx="250680" cy="9653"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286317</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>288884</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>62027</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559AE7BF-C4FE-497C-AEF5-19EA68575450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2947874" y="1281227"/>
+          <a:ext cx="2567" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223055</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>61924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE92146A-8704-491C-AC3A-413A0B656FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628797" y="1580481"/>
+          <a:ext cx="255815" cy="5443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350808</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>355429</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74555</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165C6C13-03FD-468B-AD56-6A753C9E1848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3012365" y="1469879"/>
+          <a:ext cx="4621" cy="128676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35429</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285390</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76918</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF4ECFA-ECCA-4094-BE76-AEB4750934ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3382786" y="1400765"/>
+          <a:ext cx="249961" cy="9653"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279639</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>145416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>282206</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA022486-7CB1-49FD-ABFB-83748388E990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3626996" y="1288416"/>
+          <a:ext cx="2567" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6469</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257149</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3D8241-C95C-4C82-B390-3B2DA76D58B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3353826" y="1621869"/>
+          <a:ext cx="250680" cy="9653"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300383</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344FCA83-253A-4FBD-A5BA-433FC910D63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3647740" y="1509520"/>
+          <a:ext cx="2567" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,132 +1122,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28650521-4F92-4053-A614-5E850EFE644D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="3">
-        <v>-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>-5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>4</v>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
+      <c r="G4" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="E7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C8" s="9"/>
+      <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>